--- a/results/fsm_0128_75_fx_3all0.xlsx
+++ b/results/fsm_0128_75_fx_3all0.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minjingshi/Desktop/logi2dial/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo_S\Desktop\logi2dial\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15869B9E-4473-2044-A33F-34E5717B4774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD05DD99-67EB-485A-8897-2CA66DB3ACCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$I$318</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$318</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -4218,7 +4218,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4521,17 +4521,17 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="142" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="142" workbookViewId="0">
+      <selection activeCell="B285" sqref="B285"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="53.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="55.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="55.46484375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="99.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>33</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>40</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>3</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>3</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>51</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="99.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>57</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>63</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="99.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>74</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>79</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>85</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="114" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>1</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>91</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>97</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>104</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="99.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>110</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>116</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="99.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>1</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>122</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>128</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>2</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>134</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>139</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>2</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
         <v>145</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>1</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>3</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
         <v>155</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>1</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
         <v>162</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>3</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
         <v>168</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>2</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
         <v>174</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>1</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>3</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>3</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
         <v>189</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
         <v>194</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>2</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
         <v>200</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>1</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>2</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
         <v>210</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>3</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
         <v>216</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>2</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
         <v>222</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>2</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
         <v>228</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" ht="99.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>1</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
         <v>234</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>2</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
         <v>240</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>3</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
         <v>246</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
         <v>251</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>2</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B79" t="s">
         <v>257</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>1</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>2</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>1</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B83" t="s">
         <v>271</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>2</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>2</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>2</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>1</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>2</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B89" t="s">
         <v>293</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B91" t="s">
         <v>298</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>1</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B93" t="s">
         <v>304</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>2</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>2</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B96" t="s">
         <v>314</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>1</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B98" t="s">
         <v>320</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>2</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>2</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B101" t="s">
         <v>330</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>3</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>1</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B104" t="s">
         <v>340</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>1</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B106" t="s">
         <v>346</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>14</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B108" t="s">
         <v>351</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>2</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B110" t="s">
         <v>357</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>1</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B112" t="s">
         <v>363</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>2</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B114" t="s">
         <v>369</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>1</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>2</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B117" t="s">
         <v>379</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>2</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B119" t="s">
         <v>385</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>2</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B121" t="s">
         <v>391</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>2</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B123" t="s">
         <v>397</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>3</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B125" t="s">
         <v>403</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>14</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>2</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B128" t="s">
         <v>412</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>1</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B130" t="s">
         <v>418</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>2</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" ht="99.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>1</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B133" t="s">
         <v>428</v>
       </c>
@@ -8253,7 +8253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>2</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B135" t="s">
         <v>435</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>2</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B137" t="s">
         <v>441</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>2</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B139" t="s">
         <v>447</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>3</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B141" t="s">
         <v>453</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" ht="99.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>2</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B143" t="s">
         <v>459</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>14</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>2</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B146" t="s">
         <v>468</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>2</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B148" t="s">
         <v>474</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>3</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B150" t="s">
         <v>480</v>
       </c>
@@ -8722,7 +8722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>2</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B152" t="s">
         <v>486</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>2</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B154" t="s">
         <v>492</v>
       </c>
@@ -8832,7 +8832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>2</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B156" t="s">
         <v>498</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>2</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B158" t="s">
         <v>504</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>2</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B160" t="s">
         <v>510</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>3</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B162" t="s">
         <v>516</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>14</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B164" t="s">
         <v>521</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" ht="99.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>1</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B166" t="s">
         <v>527</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>2</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B168" t="s">
         <v>533</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>1</v>
       </c>
@@ -9243,7 +9243,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B170" t="s">
         <v>539</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>2</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B172" t="s">
         <v>545</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>1</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B174" t="s">
         <v>551</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>2</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B176" t="s">
         <v>557</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>2</v>
       </c>
@@ -9463,7 +9463,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B178" t="s">
         <v>563</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" ht="99.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>1</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>2</v>
       </c>
@@ -9550,7 +9550,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B181" t="s">
         <v>573</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>14</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B183" t="s">
         <v>578</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>2</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B185" t="s">
         <v>584</v>
       </c>
@@ -9683,7 +9683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>1</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>2</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B188" t="s">
         <v>594</v>
       </c>
@@ -9770,7 +9770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" ht="99.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>1</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>2</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B191" t="s">
         <v>604</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>2</v>
       </c>
@@ -9886,7 +9886,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B193" t="s">
         <v>610</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" ht="99.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>1</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B195" t="s">
         <v>616</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>3</v>
       </c>
@@ -9996,7 +9996,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B197" t="s">
         <v>622</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>2</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B199" t="s">
         <v>628</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>14</v>
       </c>
@@ -10103,7 +10103,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B201" t="s">
         <v>633</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>2</v>
       </c>
@@ -10158,7 +10158,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>1</v>
       </c>
@@ -10190,7 +10190,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B204" t="s">
         <v>643</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>2</v>
       </c>
@@ -10245,7 +10245,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B206" t="s">
         <v>649</v>
       </c>
@@ -10271,7 +10271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>2</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B208" t="s">
         <v>655</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>2</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B210" t="s">
         <v>661</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>1</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>2</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B213" t="s">
         <v>671</v>
       </c>
@@ -10468,7 +10468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>2</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B215" t="s">
         <v>677</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>3</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B217" t="s">
         <v>683</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>14</v>
       </c>
@@ -10604,7 +10604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B219" t="s">
         <v>688</v>
       </c>
@@ -10630,7 +10630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>2</v>
       </c>
@@ -10659,7 +10659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B221" t="s">
         <v>694</v>
       </c>
@@ -10685,7 +10685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>1</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>2</v>
       </c>
@@ -10746,7 +10746,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B224" t="s">
         <v>704</v>
       </c>
@@ -10772,7 +10772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>2</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B226" t="s">
         <v>710</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>2</v>
       </c>
@@ -10856,7 +10856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B228" t="s">
         <v>716</v>
       </c>
@@ -10882,7 +10882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>3</v>
       </c>
@@ -10911,7 +10911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B230" t="s">
         <v>722</v>
       </c>
@@ -10937,7 +10937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>2</v>
       </c>
@@ -10966,7 +10966,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B232" t="s">
         <v>728</v>
       </c>
@@ -10992,7 +10992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>2</v>
       </c>
@@ -11021,7 +11021,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="234" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>2</v>
       </c>
@@ -11053,7 +11053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B235" t="s">
         <v>738</v>
       </c>
@@ -11076,7 +11076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>14</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B237" t="s">
         <v>743</v>
       </c>
@@ -11131,7 +11131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>1</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B239" t="s">
         <v>749</v>
       </c>
@@ -11186,7 +11186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>2</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="241" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>2</v>
       </c>
@@ -11247,7 +11247,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>2</v>
       </c>
@@ -11279,7 +11279,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B243" t="s">
         <v>763</v>
       </c>
@@ -11305,7 +11305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>2</v>
       </c>
@@ -11334,7 +11334,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>1</v>
       </c>
@@ -11366,7 +11366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B246" t="s">
         <v>773</v>
       </c>
@@ -11392,7 +11392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>2</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>2</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B249" t="s">
         <v>783</v>
       </c>
@@ -11479,7 +11479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>1</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B251" t="s">
         <v>789</v>
       </c>
@@ -11531,7 +11531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>14</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B253" t="s">
         <v>794</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>2</v>
       </c>
@@ -11615,7 +11615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B255" t="s">
         <v>800</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>1</v>
       </c>
@@ -11670,7 +11670,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B257" t="s">
         <v>806</v>
       </c>
@@ -11696,7 +11696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B258" t="s">
         <v>810</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>2</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B260" t="s">
         <v>816</v>
       </c>
@@ -11777,7 +11777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>2</v>
       </c>
@@ -11806,7 +11806,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>2</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B263" t="s">
         <v>825</v>
       </c>
@@ -11864,7 +11864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>1</v>
       </c>
@@ -11893,7 +11893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>2</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>2</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B267" t="s">
         <v>839</v>
       </c>
@@ -11980,7 +11980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>14</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B269" t="s">
         <v>844</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>1</v>
       </c>
@@ -12064,7 +12064,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B271" t="s">
         <v>850</v>
       </c>
@@ -12090,7 +12090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>2</v>
       </c>
@@ -12119,7 +12119,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>2</v>
       </c>
@@ -12151,7 +12151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>1</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B275" t="s">
         <v>864</v>
       </c>
@@ -12209,7 +12209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>2</v>
       </c>
@@ -12238,7 +12238,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B277" t="s">
         <v>870</v>
       </c>
@@ -12264,7 +12264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>2</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B279" t="s">
         <v>876</v>
       </c>
@@ -12319,7 +12319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>1</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B281" t="s">
         <v>882</v>
       </c>
@@ -12374,7 +12374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>2</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>2</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B284" t="s">
         <v>892</v>
       </c>
@@ -12458,7 +12458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:10" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>14</v>
       </c>
@@ -12487,7 +12487,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B286" t="s">
         <v>897</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B287" t="s">
         <v>810</v>
       </c>
@@ -12536,7 +12536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:10" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>2</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B289" t="s">
         <v>905</v>
       </c>
@@ -12594,7 +12594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>1</v>
       </c>
@@ -12623,7 +12623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B291" t="s">
         <v>911</v>
       </c>
@@ -12649,7 +12649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>2</v>
       </c>
@@ -12678,7 +12678,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B293" t="s">
         <v>917</v>
       </c>
@@ -12704,7 +12704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>1</v>
       </c>
@@ -12733,7 +12733,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>2</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>2</v>
       </c>
@@ -12797,7 +12797,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B297" t="s">
         <v>931</v>
       </c>
@@ -12823,7 +12823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>1</v>
       </c>
@@ -12852,7 +12852,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B299" t="s">
         <v>937</v>
       </c>
@@ -12878,7 +12878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>2</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B301" t="s">
         <v>943</v>
       </c>
@@ -12930,7 +12930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>14</v>
       </c>
@@ -12959,7 +12959,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>2</v>
       </c>
@@ -12991,7 +12991,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B304" t="s">
         <v>952</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>1</v>
       </c>
@@ -13046,7 +13046,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B306" t="s">
         <v>958</v>
       </c>
@@ -13072,7 +13072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>2</v>
       </c>
@@ -13101,7 +13101,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B308" t="s">
         <v>964</v>
       </c>
@@ -13127,7 +13127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>3</v>
       </c>
@@ -13156,7 +13156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>3</v>
       </c>
@@ -13188,7 +13188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B311" t="s">
         <v>974</v>
       </c>
@@ -13214,7 +13214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>3</v>
       </c>
@@ -13243,7 +13243,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B313" t="s">
         <v>980</v>
       </c>
@@ -13269,7 +13269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="314" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>1</v>
       </c>
@@ -13298,7 +13298,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B315" t="s">
         <v>986</v>
       </c>
@@ -13324,7 +13324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>2</v>
       </c>
@@ -13353,7 +13353,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="B317" t="s">
         <v>992</v>
       </c>
@@ -13379,7 +13379,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:10" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>3</v>
       </c>
@@ -13409,14 +13409,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="I1:I318" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:A318" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="a"/>
-        <filter val="b"/>
-        <filter val="c"/>
-        <filter val="no"/>
-        <filter val="yes"/>
+        <filter val="D"/>
       </filters>
     </filterColumn>
   </autoFilter>
